--- a/Kütüphane_DB.xlsx
+++ b/Kütüphane_DB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Kitaplar</t>
   </si>
@@ -104,96 +104,6 @@
   </si>
   <si>
     <t>KitapTürleri</t>
-  </si>
-  <si>
-    <t>Anı</t>
-  </si>
-  <si>
-    <t>Anlatı</t>
-  </si>
-  <si>
-    <t>Araştırma-İnceleme</t>
-  </si>
-  <si>
-    <t>Bilim</t>
-  </si>
-  <si>
-    <t>Biyografi</t>
-  </si>
-  <si>
-    <t>Çizgi Roman</t>
-  </si>
-  <si>
-    <t>Deneme</t>
-  </si>
-  <si>
-    <t>Edebiyat</t>
-  </si>
-  <si>
-    <t>Eğitim</t>
-  </si>
-  <si>
-    <t>Felsefe</t>
-  </si>
-  <si>
-    <t>Gençlik</t>
-  </si>
-  <si>
-    <t>Gezi</t>
-  </si>
-  <si>
-    <t>Hikâye</t>
-  </si>
-  <si>
-    <t>Hobi</t>
-  </si>
-  <si>
-    <t>İnceleme</t>
-  </si>
-  <si>
-    <t>İş Ekonomi – Hukuk</t>
-  </si>
-  <si>
-    <t>Kişisel Gelişim</t>
-  </si>
-  <si>
-    <t>Konuşmalar</t>
-  </si>
-  <si>
-    <t>Masal</t>
-  </si>
-  <si>
-    <t>Mektup</t>
-  </si>
-  <si>
-    <t>Mizah</t>
-  </si>
-  <si>
-    <t>Öykü</t>
-  </si>
-  <si>
-    <t>Polisiye</t>
-  </si>
-  <si>
-    <t>Psikoloji</t>
-  </si>
-  <si>
-    <t>Resimli Öykü</t>
-  </si>
-  <si>
-    <t>Roman</t>
-  </si>
-  <si>
-    <t>Sağlık</t>
-  </si>
-  <si>
-    <t>Sanat – Tasarım</t>
-  </si>
-  <si>
-    <t>Sanat- Müzik</t>
-  </si>
-  <si>
-    <t>Sinema Tarihi</t>
   </si>
 </sst>
 </file>
@@ -355,43 +265,55 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,16 +323,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K56"/>
+  <dimension ref="B2:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,18 +654,21 @@
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -760,13 +677,13 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -776,19 +693,19 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
       <c r="F7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -809,7 +726,7 @@
       <c r="I8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -819,25 +736,25 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="13"/>
+      <c r="E12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -859,17 +776,17 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -894,24 +811,24 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -933,165 +850,216 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="24" t="s">
-        <v>33</v>
-      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="24" t="s">
-        <v>34</v>
-      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K46" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K47" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K48" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K49" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K50" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K51" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K52" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K53" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K54" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K55" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K56" s="24" t="s">
-        <v>59</v>
-      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="26"/>
+    </row>
+    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="40" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="26"/>
+    </row>
+    <row r="48" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="26"/>
+    </row>
+    <row r="49" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="26"/>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="26"/>
+    </row>
+    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="26"/>
+    </row>
+    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="26"/>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="26"/>
+    </row>
+    <row r="55" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="26"/>
+    </row>
+    <row r="56" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
